--- a/QuanLyKhoHangLaptop/src/database/DanhSachThongTin.xlsx
+++ b/QuanLyKhoHangLaptop/src/database/DanhSachThongTin.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t/>
   </si>
@@ -50,7 +50,7 @@
     <t>Trần Hoài Nam</t>
   </si>
   <si>
-    <t>2004-01-30</t>
+    <t>2004-11-01</t>
   </si>
   <si>
     <t>nam</t>
@@ -68,76 +68,28 @@
     <t>3001</t>
   </si>
   <si>
-    <t>NV3</t>
-  </si>
-  <si>
-    <t>Trần Thị Huyền My</t>
-  </si>
-  <si>
-    <t>2004-02-11</t>
+    <t>NV5</t>
+  </si>
+  <si>
+    <t>Nguyễn Trương Mỹ Nhân</t>
+  </si>
+  <si>
+    <t>2004-02-01</t>
   </si>
   <si>
     <t>nữ</t>
   </si>
   <si>
-    <t>987654321</t>
-  </si>
-  <si>
-    <t>ND3</t>
-  </si>
-  <si>
-    <t>HuyenMy</t>
-  </si>
-  <si>
-    <t>1102</t>
-  </si>
-  <si>
-    <t>NV4</t>
-  </si>
-  <si>
-    <t>Nguyễn Hoài Anh Kiệt</t>
-  </si>
-  <si>
-    <t>2024-04-30</t>
-  </si>
-  <si>
     <t>123456789</t>
   </si>
   <si>
-    <t>ND4</t>
-  </si>
-  <si>
-    <t>AnhKiet</t>
+    <t>ND5</t>
+  </si>
+  <si>
+    <t>MyNhan</t>
   </si>
   <si>
     <t>1234</t>
-  </si>
-  <si>
-    <t>NV5</t>
-  </si>
-  <si>
-    <t>Nguyễn Trương Mỹ Nhân</t>
-  </si>
-  <si>
-    <t>2004-02-01</t>
-  </si>
-  <si>
-    <t>ND5</t>
-  </si>
-  <si>
-    <t>MyNhan</t>
-  </si>
-  <si>
-    <t>NV6</t>
-  </si>
-  <si>
-    <t>Trần Thị Ngọc Mai</t>
-  </si>
-  <si>
-    <t>ND6</t>
-  </si>
-  <si>
-    <t>NgocMai</t>
   </si>
 </sst>
 </file>
@@ -182,7 +134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -275,93 +227,6 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="I4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="I5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="I6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
